--- a/data/trans_bre/P6903-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6903-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,5%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,94; 21,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 24,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,13; 18,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,94; 47,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,56; 72,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,14; 171,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,98; 43,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,14; 169,09</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 11,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 24,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 15,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 16,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,29; 41,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 117,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 47,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 56,76</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,62%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 9,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 27,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 25,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 24,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,16; 40,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 242,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,99; 113,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; 96,62</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 6,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 18,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 15,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 23,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,15; 90,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; 33,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 50,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>26,23%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 47,6</t>
+          <t>-17,01; 44,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 169,09</t>
+          <t>-32,48; 163,67</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 16,1</t>
+          <t>-12,47; 13,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 56,76</t>
+          <t>-32,54; 47,52</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>23,84%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 24,68</t>
+          <t>-8,16; 24,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 96,62</t>
+          <t>-18,96; 98,28</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 15,37</t>
+          <t>-6,21; 13,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 50,66</t>
+          <t>-16,17; 42,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 21,79</t>
+          <t>-13,88; 23,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 24,91</t>
+          <t>-12,49; 25,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 18,85</t>
+          <t>-34,21; 19,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 44,84</t>
+          <t>-16,56; 43,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 72,75</t>
+          <t>-34,84; 87,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 171,38</t>
+          <t>-43,12; 162,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,98; 43,5</t>
+          <t>-57,01; 45,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 163,67</t>
+          <t>-33,23; 182,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 11,29</t>
+          <t>-8,03; 12,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 24,15</t>
+          <t>1,56; 23,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 15,58</t>
+          <t>-6,36; 16,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 13,45</t>
+          <t>-13,35; 13,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 41,5</t>
+          <t>-23,51; 45,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 117,66</t>
+          <t>2,76; 113,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 47,47</t>
+          <t>-15,27; 48,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 47,52</t>
+          <t>-35,17; 44,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 9,23</t>
+          <t>-21,83; 9,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 27,67</t>
+          <t>-10,85; 26,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 25,23</t>
+          <t>-10,26; 27,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 24,69</t>
+          <t>-9,17; 25,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,16; 40,01</t>
+          <t>-59,18; 46,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 242,8</t>
+          <t>-36,85; 209,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 113,8</t>
+          <t>-25,97; 140,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 98,28</t>
+          <t>-20,52; 99,6</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,98</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 18,74</t>
+          <t>2,9; 19,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 11,37</t>
+          <t>-6,05; 11,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 13,38</t>
+          <t>-8,54; 12,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 23,71</t>
+          <t>-23,62; 30,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 90,7</t>
+          <t>9,05; 90,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 33,14</t>
+          <t>-14,4; 32,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 42,97</t>
+          <t>-21,53; 41,53</t>
         </is>
       </c>
     </row>
